--- a/eToro Trackers.xlsx
+++ b/eToro Trackers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cib.net\shareparis\Home2\martinezlagofj\desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2ED8CB4D-BFCC-448F-9B20-20B038642858}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FF2251C1-3DD6-435E-8A2A-1DEB524206B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
